--- a/data-dict.xlsx
+++ b/data-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B1E74F-8BD7-4541-9AF1-4202686D6B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB0BD7B-1748-D94B-B537-A6A17BB5C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="500" windowWidth="50680" windowHeight="28300" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="17060" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51759A-88E3-AC40-9138-3704E9D6A5FC}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/data-dict.xlsx
+++ b/data-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB0BD7B-1748-D94B-B537-A6A17BB5C99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536963A1-6F0A-DF45-882F-9776455D5526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="17060" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51759A-88E3-AC40-9138-3704E9D6A5FC}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/data-dict.xlsx
+++ b/data-dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536963A1-6F0A-DF45-882F-9776455D5526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA38CDD8-E3D0-A94B-B831-E9FE142537A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +441,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +547,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -895,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51759A-88E3-AC40-9138-3704E9D6A5FC}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -978,7 +985,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="2">
-        <v>82.5</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2">
         <v>70</v>
@@ -1014,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="2">
-        <v>182.3</v>
+        <v>160</v>
       </c>
       <c r="J3" s="2">
         <v>155</v>
@@ -1046,10 +1053,10 @@
       <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="29">
         <v>276.5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="29">
         <v>257</v>
       </c>
       <c r="K4" s="23">
@@ -1079,10 +1086,10 @@
       <c r="H5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="29">
         <v>357</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="29">
         <v>330</v>
       </c>
       <c r="K5" s="22" t="s">
@@ -1114,6 +1121,8 @@
       <c r="H6" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="23">
         <v>237100</v>
       </c>
@@ -1140,6 +1149,8 @@
       <c r="H7" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="23">
         <v>796000</v>
       </c>
@@ -1166,6 +1177,8 @@
       <c r="H8" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="23">
         <v>131000</v>
       </c>
@@ -1192,6 +1205,8 @@
       <c r="H9" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="23">
         <v>382000</v>
       </c>
@@ -1218,6 +1233,8 @@
       <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="23">
         <v>331200</v>
       </c>
@@ -1244,10 +1261,10 @@
       <c r="H11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="29">
         <v>958.8</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="29">
         <v>930</v>
       </c>
       <c r="K11" s="23">
@@ -1276,10 +1293,10 @@
       <c r="H12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="29">
         <v>1290</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="29">
         <v>1208</v>
       </c>
       <c r="K12" s="23">

--- a/data-dict.xlsx
+++ b/data-dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizacohn/Desktop/cascaded-hydro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA38CDD8-E3D0-A94B-B831-E9FE142537A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25880A4D-AD16-994A-861B-1A33D73DFE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
+    <workbookView xWindow="180" yWindow="760" windowWidth="28740" windowHeight="16920" activeTab="1" xr2:uid="{91E4E570-4FDA-D248-8E42-05C4D408F481}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51759A-88E3-AC40-9138-3704E9D6A5FC}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="124" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B08DC-B182-A544-B60A-AB068FE2E834}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61B70D3-5C38-3445-B4CB-083D2E3B0506}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
